--- a/process/兆鲜生前端项目进度.xlsx
+++ b/process/兆鲜生前端项目进度.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>项目开发须知</t>
   </si>
@@ -164,18 +164,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>待定</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度如常加入部分接口，进度不足完成所有页面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>接口调试</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -281,6 +269,55 @@
   </si>
   <si>
     <t>待详细变更</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">修改安翰 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iphone适配及其他fix</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面模块写完</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本完成所有页面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序信息客户提供有误，无法接口对接，完成一部分页面二次加工，下午主要修改安翰问题1.地图定位问题
+2.首页加顶部栏
+3.文章详情页标题统一调大
+4.胃你解答 默认显示产品解答
+5.PDF名称如果过长可以换行显示，点击预览加载过程中 有加载中提示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%，修改部分安翰问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫越</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫越</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -424,7 +461,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -464,6 +501,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -484,6 +524,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="distributed"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -970,36 +1022,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="21" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="21" style="3"/>
+    <col min="3" max="7" width="21" style="3"/>
+    <col min="8" max="8" width="45.375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="21" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -1059,34 +1113,34 @@
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
@@ -1115,17 +1169,17 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="12">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
         <v>1.1399999999999999</v>
@@ -1133,9 +1187,12 @@
       <c r="G10" s="3">
         <v>1.1399999999999999</v>
       </c>
+      <c r="H10" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
@@ -1143,7 +1200,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="12">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F11" s="3">
         <v>1.1399999999999999</v>
@@ -1151,6 +1208,7 @@
       <c r="G11" s="3">
         <v>1.1399999999999999</v>
       </c>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
@@ -1163,7 +1221,7 @@
         <v>29</v>
       </c>
       <c r="E12" s="12">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F12" s="3">
         <v>1.1499999999999999</v>
@@ -1173,7 +1231,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1183,7 +1241,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="12">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F13" s="3">
         <v>1.1599999999999999</v>
@@ -1191,9 +1249,12 @@
       <c r="G13" s="3">
         <v>1.1599999999999999</v>
       </c>
+      <c r="H13" s="21" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="10" t="s">
         <v>35</v>
       </c>
@@ -1201,7 +1262,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F14" s="3">
         <v>1.1599999999999999</v>
@@ -1209,6 +1270,7 @@
       <c r="G14" s="3">
         <v>1.1599999999999999</v>
       </c>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
@@ -1221,7 +1283,7 @@
         <v>30</v>
       </c>
       <c r="E15" s="12">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F15" s="3">
         <v>1.17</v>
@@ -1232,16 +1294,16 @@
     </row>
     <row r="16" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="12">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F16" s="3">
         <v>1.18</v>
@@ -1250,15 +1312,15 @@
         <v>1.18</v>
       </c>
       <c r="H16" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>30</v>
@@ -1269,18 +1331,20 @@
       <c r="F17" s="3">
         <v>1.21</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
+      <c r="G17" s="11">
+        <v>1.22</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="16"/>
       <c r="B18" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E18" s="12">
         <v>0</v>
@@ -1288,23 +1352,23 @@
       <c r="F18" s="3">
         <v>1.21</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>46</v>
+      <c r="G18" s="11">
+        <v>1.22</v>
+      </c>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="E19" s="12">
         <v>0</v>
@@ -1313,17 +1377,17 @@
         <v>1.21</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E20" s="12">
         <v>0</v>
@@ -1332,14 +1396,14 @@
         <v>1.21</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>29</v>
@@ -1351,14 +1415,14 @@
         <v>1.21</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>29</v>
@@ -1370,18 +1434,18 @@
         <v>1.21</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>51</v>
+      <c r="A23" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>29</v>
@@ -1393,14 +1457,14 @@
         <v>1.21</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>29</v>
@@ -1412,14 +1476,14 @@
         <v>1.21</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>29</v>
@@ -1431,18 +1495,18 @@
         <v>1.21</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>55</v>
+      <c r="A26" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>29</v>
@@ -1454,14 +1518,14 @@
         <v>1.21</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>29</v>
@@ -1473,14 +1537,14 @@
         <v>1.21</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>29</v>
@@ -1492,18 +1556,18 @@
         <v>1.21</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>59</v>
+      <c r="A29" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>29</v>
@@ -1515,14 +1579,14 @@
         <v>1.21</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>29</v>
@@ -1534,14 +1598,14 @@
         <v>1.21</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>29</v>
@@ -1553,14 +1617,14 @@
         <v>1.21</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>29</v>
@@ -1572,14 +1636,14 @@
         <v>1.21</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>29</v>
@@ -1591,14 +1655,14 @@
         <v>1.21</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>29</v>
@@ -1610,11 +1674,11 @@
         <v>1.21</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="B29:B34"/>
     <mergeCell ref="A19:A22"/>
@@ -1629,6 +1693,8 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="A7:G8"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H17:H18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/process/兆鲜生前端项目进度.xlsx
+++ b/process/兆鲜生前端项目进度.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoyueyue.YUE-PC\Desktop\bianlidian\process\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D\Desktop\bianlidian\process\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>项目开发须知</t>
   </si>
@@ -212,30 +212,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>详情</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>接口调试</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -265,10 +241,6 @@
   </si>
   <si>
     <t>我的好友</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>待详细变更</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -313,18 +285,70 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>邓盛源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓盛源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗留我的收货地址编辑，添加</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂项</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>闫越</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>地址模块，我的模块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓盛源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓盛源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟调试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加减，全选</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>闫越</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品详情</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -504,16 +528,22 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1022,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1036,24 +1066,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -1113,34 +1143,34 @@
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
@@ -1169,7 +1199,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1188,7 +1218,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1231,7 +1261,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1249,8 +1279,8 @@
       <c r="G13" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>64</v>
+      <c r="H13" s="23" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1270,7 +1300,7 @@
       <c r="G14" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H14" s="22"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
@@ -1294,10 +1324,10 @@
     </row>
     <row r="16" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>29</v>
@@ -1312,11 +1342,11 @@
         <v>1.18</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -1334,8 +1364,8 @@
       <c r="G17" s="11">
         <v>1.22</v>
       </c>
-      <c r="H17" s="23" t="s">
-        <v>68</v>
+      <c r="H17" s="25" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1355,30 +1385,28 @@
       <c r="G18" s="11">
         <v>1.22</v>
       </c>
-      <c r="H18" s="24"/>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3">
-        <v>1.21</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>63</v>
-      </c>
+        <v>1.22</v>
+      </c>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16"/>
@@ -1387,17 +1415,15 @@
         <v>45</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E20" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
-        <v>1.21</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>63</v>
-      </c>
+        <v>1.22</v>
+      </c>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16"/>
@@ -1406,17 +1432,15 @@
         <v>46</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="E21" s="12">
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>1.21</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>63</v>
-      </c>
+        <v>1.22</v>
+      </c>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="16"/>
@@ -1425,88 +1449,93 @@
         <v>47</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="E22" s="12">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>1.21</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>63</v>
+        <v>1.22</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1.22</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>29</v>
+      <c r="A23" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="E23" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="3">
-        <v>1.21</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>63</v>
-      </c>
+        <v>1.23</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1.23</v>
+      </c>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="G24" s="14">
+        <v>1.23</v>
+      </c>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="12">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1.21</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="B25" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="C25" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="3">
-        <v>1.21</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>63</v>
+        <v>1.23</v>
+      </c>
+      <c r="G25" s="11">
+        <v>1.23</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>29</v>
@@ -1515,178 +1544,175 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>1.21</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>63</v>
-      </c>
+        <v>1.23</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1.23</v>
+      </c>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="3">
-        <v>1.21</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>63</v>
-      </c>
+        <v>1.23</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1.23</v>
+      </c>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="3">
-        <v>1.21</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>63</v>
-      </c>
+        <v>1.23</v>
+      </c>
+      <c r="G28" s="11">
+        <v>1.23</v>
+      </c>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E29" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="3">
-        <v>1.21</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>63</v>
-      </c>
+        <v>1.23</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1.23</v>
+      </c>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="3">
-        <v>1.21</v>
-      </c>
-      <c r="G30" s="11" t="s">
+        <v>1.23</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1.23</v>
+      </c>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1.24</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="12">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1.21</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="E32" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="3">
-        <v>1.21</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.24</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="11" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E33" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F33" s="3">
-        <v>1.21</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.24</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="11" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E34" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F34" s="3">
-        <v>1.21</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>63</v>
-      </c>
+        <v>1.24</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B34"/>
+  <mergeCells count="19">
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A13:A14"/>
@@ -1695,6 +1721,15 @@
     <mergeCell ref="A7:G8"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="H25:H30"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:B30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/process/兆鲜生前端项目进度.xlsx
+++ b/process/兆鲜生前端项目进度.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D\Desktop\bianlidian\process\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoyueyue.YUE-PC\Desktop\yy_tc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="98">
   <si>
     <t>项目开发须知</t>
   </si>
@@ -212,6 +212,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>接口调试</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -285,6 +293,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>邓盛源</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -337,18 +349,112 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>商品列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情</t>
+    <t>便利店首页部分修改，安翰修改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口调试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安翰分页修改，便利店部分收货地址等修改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面逻辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地址等模块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫越</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫越</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假一天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫越</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假一天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口调试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单模块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改地址模块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务逻辑修改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ix地址模块，购物车模块</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单业务，项目完善</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单模块等</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>订单分页，地址模块f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ix，及其他</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -485,7 +591,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -526,6 +632,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1050,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1066,24 +1175,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -1143,34 +1252,34 @@
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
@@ -1199,7 +1308,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1218,11 +1327,11 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
@@ -1261,7 +1370,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1279,12 +1388,12 @@
       <c r="G13" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H13" s="23" t="s">
-        <v>57</v>
+      <c r="H13" s="24" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="10" t="s">
         <v>35</v>
       </c>
@@ -1300,7 +1409,7 @@
       <c r="G14" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H14" s="24"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
@@ -1324,10 +1433,10 @@
     </row>
     <row r="16" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>29</v>
@@ -1342,11 +1451,11 @@
         <v>1.18</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -1364,12 +1473,12 @@
       <c r="G17" s="11">
         <v>1.22</v>
       </c>
-      <c r="H17" s="25" t="s">
-        <v>61</v>
+      <c r="H17" s="26" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="11" t="s">
         <v>41</v>
       </c>
@@ -1385,75 +1494,67 @@
       <c r="G18" s="11">
         <v>1.22</v>
       </c>
-      <c r="H18" s="26"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="12">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E19" s="12"/>
       <c r="F19" s="3">
         <v>1.22</v>
       </c>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="12">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E20" s="12"/>
       <c r="F20" s="3">
         <v>1.22</v>
       </c>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E21" s="12"/>
       <c r="F21" s="3">
         <v>1.22</v>
       </c>
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="12">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E22" s="12"/>
       <c r="F22" s="3">
         <v>1.22</v>
       </c>
@@ -1462,17 +1563,17 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>72</v>
+      <c r="A23" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E23" s="12">
         <v>1</v>
@@ -1483,16 +1584,16 @@
       <c r="G23" s="14">
         <v>1.23</v>
       </c>
-      <c r="H23" s="17"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E24" s="12">
         <v>1</v>
@@ -1503,17 +1604,17 @@
       <c r="G24" s="14">
         <v>1.23</v>
       </c>
-      <c r="H24" s="16"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>50</v>
+      <c r="A25" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>29</v>
@@ -1527,15 +1628,15 @@
       <c r="G25" s="11">
         <v>1.23</v>
       </c>
-      <c r="H25" s="15" t="s">
-        <v>65</v>
+      <c r="H25" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>29</v>
@@ -1549,13 +1650,13 @@
       <c r="G26" s="11">
         <v>1.23</v>
       </c>
-      <c r="H26" s="16"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>29</v>
@@ -1569,13 +1670,13 @@
       <c r="G27" s="11">
         <v>1.23</v>
       </c>
-      <c r="H27" s="16"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>29</v>
@@ -1589,13 +1690,13 @@
       <c r="G28" s="11">
         <v>1.23</v>
       </c>
-      <c r="H28" s="16"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>29</v>
@@ -1609,13 +1710,13 @@
       <c r="G29" s="11">
         <v>1.23</v>
       </c>
-      <c r="H29" s="16"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>29</v>
@@ -1629,17 +1730,17 @@
       <c r="G30" s="11">
         <v>1.23</v>
       </c>
-      <c r="H30" s="16"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E31" s="12">
         <v>0.8</v>
@@ -1652,62 +1753,182 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="16" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="12">
-        <v>1</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E32" s="12"/>
       <c r="F32" s="3">
         <v>1.24</v>
       </c>
       <c r="G32" s="11"/>
-      <c r="H32" s="17"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="11" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="12">
-        <v>0.5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E33" s="12"/>
       <c r="F33" s="3">
         <v>1.24</v>
       </c>
       <c r="G33" s="11"/>
-      <c r="H33" s="16"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="11" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="12">
-        <v>0.5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E34" s="12"/>
       <c r="F34" s="3">
         <v>1.24</v>
       </c>
       <c r="G34" s="11"/>
-      <c r="H34" s="16"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1.26</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1.27</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1.29</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1.29</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1.29</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
